--- a/其他/demo/学习时长统计表格.xlsx
+++ b/其他/demo/学习时长统计表格.xlsx
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -411,10 +411,18 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2">
+        <v>44278</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="3">
         <v>0.3</v>
       </c>
     </row>

--- a/其他/demo/学习时长统计表格.xlsx
+++ b/其他/demo/学习时长统计表格.xlsx
@@ -14,17 +14,178 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>余额</t>
+    <t>学习时长(小时)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习时长(小时)</t>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 B 站中看 node 视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看了半小时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> node </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>心中突然很迷茫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不知道如何具体学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>但是下定学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>慢慢熬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>慢慢学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> node, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从视频学起</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -87,6 +248,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -382,49 +546,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="36.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>44277</v>
       </c>
       <c r="B2" s="3">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>44278</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="42.75">
+      <c r="A4" s="2">
+        <v>44279</v>
       </c>
       <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3">
         <v>0.3</v>
       </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
